--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il15-Il2rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il15-Il2rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H2">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I2">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J2">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,22 +564,22 @@
         <v>2.415267</v>
       </c>
       <c r="O2">
-        <v>0.4647747390621633</v>
+        <v>0.4118548214512568</v>
       </c>
       <c r="P2">
-        <v>0.4647747390621632</v>
+        <v>0.4156154679278413</v>
       </c>
       <c r="Q2">
-        <v>3.926864535580001</v>
+        <v>4.296304044263</v>
       </c>
       <c r="R2">
-        <v>35.34178082022</v>
+        <v>38.666736398367</v>
       </c>
       <c r="S2">
-        <v>0.0561780290210841</v>
+        <v>0.03934911892819481</v>
       </c>
       <c r="T2">
-        <v>0.05748415908812239</v>
+        <v>0.03990715713789326</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H3">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I3">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J3">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7189636666666667</v>
+        <v>0.9511543333333333</v>
       </c>
       <c r="N3">
-        <v>2.156891</v>
+        <v>2.853463</v>
       </c>
       <c r="O3">
-        <v>0.4150549201022199</v>
+        <v>0.4865766370271973</v>
       </c>
       <c r="P3">
-        <v>0.4150549201022198</v>
+        <v>0.4910195684202955</v>
       </c>
       <c r="Q3">
-        <v>3.506783628895556</v>
+        <v>5.075772006595889</v>
       </c>
       <c r="R3">
-        <v>31.56105266006</v>
+        <v>45.681948059363</v>
       </c>
       <c r="S3">
-        <v>0.05016831894499246</v>
+        <v>0.04648813358697135</v>
       </c>
       <c r="T3">
-        <v>0.05133472422706863</v>
+        <v>0.04714741530777521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H4">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I4">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J4">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.2081606666666667</v>
+        <v>0.053063</v>
       </c>
       <c r="N4">
-        <v>0.624482</v>
+        <v>0.106126</v>
       </c>
       <c r="O4">
-        <v>0.1201703408356169</v>
+        <v>0.0271451384762033</v>
       </c>
       <c r="P4">
-        <v>0.1201703408356169</v>
+        <v>0.0182620004948977</v>
       </c>
       <c r="Q4">
-        <v>1.015314753568889</v>
+        <v>0.2831671796543334</v>
       </c>
       <c r="R4">
-        <v>9.13783278212</v>
+        <v>1.699003077926</v>
       </c>
       <c r="S4">
-        <v>0.01452517171772091</v>
+        <v>0.002593480096842462</v>
       </c>
       <c r="T4">
-        <v>0.0148628796053061</v>
+        <v>0.001753506737936659</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.649884</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H5">
-        <v>10.949652</v>
+        <v>16.009301</v>
       </c>
       <c r="I5">
-        <v>0.09044842682388111</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J5">
-        <v>0.09255133808384444</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.8050890000000001</v>
+        <v>0.145482</v>
       </c>
       <c r="N5">
-        <v>2.415267</v>
+        <v>0.436446</v>
       </c>
       <c r="O5">
-        <v>0.4647747390621633</v>
+        <v>0.07442340304534249</v>
       </c>
       <c r="P5">
-        <v>0.4647747390621632</v>
+        <v>0.07510296315696552</v>
       </c>
       <c r="Q5">
-        <v>2.938481459676</v>
+        <v>0.7763550426940001</v>
       </c>
       <c r="R5">
-        <v>26.446333137084</v>
+        <v>6.987195384246</v>
       </c>
       <c r="S5">
-        <v>0.04203814397565251</v>
+        <v>0.007110503956595652</v>
       </c>
       <c r="T5">
-        <v>0.04301552400777285</v>
+        <v>0.007211343136889197</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>10.949652</v>
       </c>
       <c r="I6">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J6">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7189636666666667</v>
+        <v>0.8050890000000001</v>
       </c>
       <c r="N6">
-        <v>2.156891</v>
+        <v>2.415267</v>
       </c>
       <c r="O6">
-        <v>0.4150549201022199</v>
+        <v>0.4118548214512568</v>
       </c>
       <c r="P6">
-        <v>0.4150549201022198</v>
+        <v>0.4156154679278413</v>
       </c>
       <c r="Q6">
-        <v>2.624133983548</v>
+        <v>2.938481459676</v>
       </c>
       <c r="R6">
-        <v>23.617205851932</v>
+        <v>26.446333137084</v>
       </c>
       <c r="S6">
-        <v>0.03754106456875746</v>
+        <v>0.0269130525292982</v>
       </c>
       <c r="T6">
-        <v>0.03841388823374359</v>
+        <v>0.02729472592021645</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>10.949652</v>
       </c>
       <c r="I7">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J7">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2081606666666667</v>
+        <v>0.9511543333333333</v>
       </c>
       <c r="N7">
-        <v>0.624482</v>
+        <v>2.853463</v>
       </c>
       <c r="O7">
-        <v>0.1201703408356169</v>
+        <v>0.4865766370271973</v>
       </c>
       <c r="P7">
-        <v>0.1201703408356169</v>
+        <v>0.4910195684202955</v>
       </c>
       <c r="Q7">
-        <v>0.759762286696</v>
+        <v>3.471602982764</v>
       </c>
       <c r="R7">
-        <v>6.837860580264</v>
+        <v>31.244426844876</v>
       </c>
       <c r="S7">
-        <v>0.01086921827947114</v>
+        <v>0.03179582199790285</v>
       </c>
       <c r="T7">
-        <v>0.01112192584232799</v>
+        <v>0.03224674146108012</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.89730566666667</v>
+        <v>3.649884</v>
       </c>
       <c r="H8">
-        <v>50.691917</v>
+        <v>10.949652</v>
       </c>
       <c r="I8">
-        <v>0.4187351475039348</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J8">
-        <v>0.428470671797166</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.8050890000000001</v>
+        <v>0.053063</v>
       </c>
       <c r="N8">
-        <v>2.415267</v>
+        <v>0.106126</v>
       </c>
       <c r="O8">
-        <v>0.4647747390621633</v>
+        <v>0.0271451384762033</v>
       </c>
       <c r="P8">
-        <v>0.4647747390621632</v>
+        <v>0.0182620004948977</v>
       </c>
       <c r="Q8">
-        <v>13.603834921871</v>
+        <v>0.193673794692</v>
       </c>
       <c r="R8">
-        <v>122.434514296839</v>
+        <v>1.162042768152</v>
       </c>
       <c r="S8">
-        <v>0.1946175189172978</v>
+        <v>0.00177382538621463</v>
       </c>
       <c r="T8">
-        <v>0.1991423446803176</v>
+        <v>0.001199320854799445</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.89730566666667</v>
+        <v>3.649884</v>
       </c>
       <c r="H9">
-        <v>50.691917</v>
+        <v>10.949652</v>
       </c>
       <c r="I9">
-        <v>0.4187351475039348</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J9">
-        <v>0.428470671797166</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.7189636666666667</v>
+        <v>0.145482</v>
       </c>
       <c r="N9">
-        <v>2.156891</v>
+        <v>0.436446</v>
       </c>
       <c r="O9">
-        <v>0.4150549201022199</v>
+        <v>0.07442340304534249</v>
       </c>
       <c r="P9">
-        <v>0.4150549201022198</v>
+        <v>0.07510296315696552</v>
       </c>
       <c r="Q9">
-        <v>12.14854883889411</v>
+        <v>0.5309924240880001</v>
       </c>
       <c r="R9">
-        <v>109.336939550047</v>
+        <v>4.778931816792</v>
       </c>
       <c r="S9">
-        <v>0.1737980831912369</v>
+        <v>0.00486326941253372</v>
       </c>
       <c r="T9">
-        <v>0.1778388604489172</v>
+        <v>0.004932238940446249</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.89730566666667</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H10">
-        <v>50.691917</v>
+        <v>66.993289</v>
       </c>
       <c r="I10">
-        <v>0.4187351475039348</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J10">
-        <v>0.428470671797166</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2081606666666667</v>
+        <v>0.8050890000000001</v>
       </c>
       <c r="N10">
-        <v>0.624482</v>
+        <v>2.415267</v>
       </c>
       <c r="O10">
-        <v>0.1201703408356169</v>
+        <v>0.4118548214512568</v>
       </c>
       <c r="P10">
-        <v>0.1201703408356169</v>
+        <v>0.4156154679278413</v>
       </c>
       <c r="Q10">
-        <v>3.517354412443778</v>
+        <v>17.978520015907</v>
       </c>
       <c r="R10">
-        <v>31.656189711994</v>
+        <v>161.806680143163</v>
       </c>
       <c r="S10">
-        <v>0.05031954539540014</v>
+        <v>0.1646622108143213</v>
       </c>
       <c r="T10">
-        <v>0.05148946666793116</v>
+        <v>0.1669974042781316</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.750664</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H11">
-        <v>5.501328</v>
+        <v>66.993289</v>
       </c>
       <c r="I11">
-        <v>0.06816469551390787</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J11">
-        <v>0.04649967575573358</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,95 +1116,95 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8050890000000001</v>
+        <v>0.9511543333333333</v>
       </c>
       <c r="N11">
-        <v>2.415267</v>
+        <v>2.853463</v>
       </c>
       <c r="O11">
-        <v>0.4647747390621633</v>
+        <v>0.4865766370271973</v>
       </c>
       <c r="P11">
-        <v>0.4647747390621632</v>
+        <v>0.4910195684202955</v>
       </c>
       <c r="Q11">
-        <v>2.214529329096</v>
+        <v>21.24031904553411</v>
       </c>
       <c r="R11">
-        <v>13.287175974576</v>
+        <v>191.162871409807</v>
       </c>
       <c r="S11">
-        <v>0.03168122857072835</v>
+        <v>0.194536474044843</v>
       </c>
       <c r="T11">
-        <v>0.02161187466584627</v>
+        <v>0.1972953359623139</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.750664</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H12">
-        <v>5.501328</v>
+        <v>66.993289</v>
       </c>
       <c r="I12">
-        <v>0.06816469551390787</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J12">
-        <v>0.04649967575573358</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.7189636666666667</v>
+        <v>0.053063</v>
       </c>
       <c r="N12">
-        <v>2.156891</v>
+        <v>0.106126</v>
       </c>
       <c r="O12">
-        <v>0.4150549201022199</v>
+        <v>0.0271451384762033</v>
       </c>
       <c r="P12">
-        <v>0.4150549201022198</v>
+        <v>0.0182620004948977</v>
       </c>
       <c r="Q12">
-        <v>1.977627475208</v>
+        <v>1.184954964735667</v>
       </c>
       <c r="R12">
-        <v>11.865764851248</v>
+        <v>7.109729788414</v>
       </c>
       <c r="S12">
-        <v>0.02829209225031718</v>
+        <v>0.01085280123370252</v>
       </c>
       <c r="T12">
-        <v>0.01929991920557513</v>
+        <v>0.007337808418870871</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.750664</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H13">
-        <v>5.501328</v>
+        <v>66.993289</v>
       </c>
       <c r="I13">
-        <v>0.06816469551390787</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J13">
-        <v>0.04649967575573358</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,33 +1240,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2081606666666667</v>
+        <v>0.145482</v>
       </c>
       <c r="N13">
-        <v>0.624482</v>
+        <v>0.436446</v>
       </c>
       <c r="O13">
-        <v>0.1201703408356169</v>
+        <v>0.07442340304534249</v>
       </c>
       <c r="P13">
-        <v>0.1201703408356169</v>
+        <v>0.07510296315696552</v>
       </c>
       <c r="Q13">
-        <v>0.5725800520159999</v>
+        <v>3.248772556766</v>
       </c>
       <c r="R13">
-        <v>3.435480312096</v>
+        <v>29.238953010894</v>
       </c>
       <c r="S13">
-        <v>0.008191374692862352</v>
+        <v>0.02975495597839381</v>
       </c>
       <c r="T13">
-        <v>0.005587881884312174</v>
+        <v>0.03017693244994173</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.177799</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H14">
-        <v>36.533397</v>
+        <v>1.668972</v>
       </c>
       <c r="I14">
-        <v>0.3017802104744788</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J14">
-        <v>0.3087965514427589</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1308,27 +1308,27 @@
         <v>2.415267</v>
       </c>
       <c r="O14">
-        <v>0.4647747390621633</v>
+        <v>0.4118548214512568</v>
       </c>
       <c r="P14">
-        <v>0.4647747390621632</v>
+        <v>0.4156154679278413</v>
       </c>
       <c r="Q14">
-        <v>9.804212019111</v>
+        <v>0.6718354992540001</v>
       </c>
       <c r="R14">
-        <v>88.23790817199901</v>
+        <v>4.031012995524001</v>
       </c>
       <c r="S14">
-        <v>0.1402598185774006</v>
+        <v>0.006153227212964559</v>
       </c>
       <c r="T14">
-        <v>0.1435208366201041</v>
+        <v>0.004160327041308299</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.177799</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H15">
-        <v>36.533397</v>
+        <v>1.668972</v>
       </c>
       <c r="I15">
-        <v>0.3017802104744788</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J15">
-        <v>0.3087965514427589</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7189636666666667</v>
+        <v>0.9511543333333333</v>
       </c>
       <c r="N15">
-        <v>2.156891</v>
+        <v>2.853463</v>
       </c>
       <c r="O15">
-        <v>0.4150549201022199</v>
+        <v>0.4865766370271973</v>
       </c>
       <c r="P15">
-        <v>0.4150549201022198</v>
+        <v>0.4910195684202955</v>
       </c>
       <c r="Q15">
-        <v>8.755395020969667</v>
+        <v>0.793724975006</v>
       </c>
       <c r="R15">
-        <v>78.79855518872699</v>
+        <v>4.762349850036</v>
       </c>
       <c r="S15">
-        <v>0.1252553611469159</v>
+        <v>0.007269592216010689</v>
       </c>
       <c r="T15">
-        <v>0.1281675279869153</v>
+        <v>0.004915125027697849</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8344860000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.668972</v>
+      </c>
+      <c r="I16">
+        <v>0.01494028209086487</v>
+      </c>
+      <c r="J16">
+        <v>0.01001003899602363</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.053063</v>
+      </c>
+      <c r="N16">
+        <v>0.106126</v>
+      </c>
+      <c r="O16">
+        <v>0.0271451384762033</v>
+      </c>
+      <c r="P16">
+        <v>0.0182620004948977</v>
+      </c>
+      <c r="Q16">
+        <v>0.04428033061800001</v>
+      </c>
+      <c r="R16">
+        <v>0.177121322472</v>
+      </c>
+      <c r="S16">
+        <v>0.000405556026230067</v>
+      </c>
+      <c r="T16">
+        <v>0.0001828033370993288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8344860000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.668972</v>
+      </c>
+      <c r="I17">
+        <v>0.01494028209086487</v>
+      </c>
+      <c r="J17">
+        <v>0.01001003899602363</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.145482</v>
+      </c>
+      <c r="N17">
+        <v>0.436446</v>
+      </c>
+      <c r="O17">
+        <v>0.07442340304534249</v>
+      </c>
+      <c r="P17">
+        <v>0.07510296315696552</v>
+      </c>
+      <c r="Q17">
+        <v>0.121402692252</v>
+      </c>
+      <c r="R17">
+        <v>0.7284161535120001</v>
+      </c>
+      <c r="S17">
+        <v>0.001111906635659548</v>
+      </c>
+      <c r="T17">
+        <v>0.0007517835899181506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>12.177799</v>
-      </c>
-      <c r="H16">
-        <v>36.533397</v>
-      </c>
-      <c r="I16">
-        <v>0.3017802104744788</v>
-      </c>
-      <c r="J16">
-        <v>0.3087965514427589</v>
-      </c>
-      <c r="K16">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>23.70286866666666</v>
+      </c>
+      <c r="H18">
+        <v>71.10860599999999</v>
+      </c>
+      <c r="I18">
+        <v>0.4243660699433207</v>
+      </c>
+      <c r="J18">
+        <v>0.4264900303976816</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8050890000000001</v>
+      </c>
+      <c r="N18">
+        <v>2.415267</v>
+      </c>
+      <c r="O18">
+        <v>0.4118548214512568</v>
+      </c>
+      <c r="P18">
+        <v>0.4156154679278413</v>
+      </c>
+      <c r="Q18">
+        <v>19.082918831978</v>
+      </c>
+      <c r="R18">
+        <v>171.746269487802</v>
+      </c>
+      <c r="S18">
+        <v>0.1747772119664779</v>
+      </c>
+      <c r="T18">
+        <v>0.1772558535502917</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>23.70286866666666</v>
+      </c>
+      <c r="H19">
+        <v>71.10860599999999</v>
+      </c>
+      <c r="I19">
+        <v>0.4243660699433207</v>
+      </c>
+      <c r="J19">
+        <v>0.4264900303976816</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.9511543333333333</v>
+      </c>
+      <c r="N19">
+        <v>2.853463</v>
+      </c>
+      <c r="O19">
+        <v>0.4865766370271973</v>
+      </c>
+      <c r="P19">
+        <v>0.4910195684202955</v>
+      </c>
+      <c r="Q19">
+        <v>22.54508624473089</v>
+      </c>
+      <c r="R19">
+        <v>202.905776202578</v>
+      </c>
+      <c r="S19">
+        <v>0.2064866151814694</v>
+      </c>
+      <c r="T19">
+        <v>0.2094149506614283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>23.70286866666666</v>
+      </c>
+      <c r="H20">
+        <v>71.10860599999999</v>
+      </c>
+      <c r="I20">
+        <v>0.4243660699433207</v>
+      </c>
+      <c r="J20">
+        <v>0.4264900303976816</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.053063</v>
+      </c>
+      <c r="N20">
+        <v>0.106126</v>
+      </c>
+      <c r="O20">
+        <v>0.0271451384762033</v>
+      </c>
+      <c r="P20">
+        <v>0.0182620004948977</v>
+      </c>
+      <c r="Q20">
+        <v>1.257745320059333</v>
+      </c>
+      <c r="R20">
+        <v>7.546471920355999</v>
+      </c>
+      <c r="S20">
+        <v>0.01151947573321361</v>
+      </c>
+      <c r="T20">
+        <v>0.007788561146191399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>23.70286866666666</v>
+      </c>
+      <c r="H21">
+        <v>71.10860599999999</v>
+      </c>
+      <c r="I21">
+        <v>0.4243660699433207</v>
+      </c>
+      <c r="J21">
+        <v>0.4264900303976816</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="L16">
+      <c r="L21">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M16">
-        <v>0.2081606666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.624482</v>
-      </c>
-      <c r="O16">
-        <v>0.1201703408356169</v>
-      </c>
-      <c r="P16">
-        <v>0.1201703408356169</v>
-      </c>
-      <c r="Q16">
-        <v>2.534938758372667</v>
-      </c>
-      <c r="R16">
-        <v>22.814448825354</v>
-      </c>
-      <c r="S16">
-        <v>0.0362650307501623</v>
-      </c>
-      <c r="T16">
-        <v>0.03710818683573943</v>
+      <c r="M21">
+        <v>0.145482</v>
+      </c>
+      <c r="N21">
+        <v>0.436446</v>
+      </c>
+      <c r="O21">
+        <v>0.07442340304534249</v>
+      </c>
+      <c r="P21">
+        <v>0.07510296315696552</v>
+      </c>
+      <c r="Q21">
+        <v>3.448340739364</v>
+      </c>
+      <c r="R21">
+        <v>31.035066654276</v>
+      </c>
+      <c r="S21">
+        <v>0.03158276706215975</v>
+      </c>
+      <c r="T21">
+        <v>0.03203066503977019</v>
       </c>
     </row>
   </sheetData>
